--- a/Eurorack_TRS-DIN5/Eurorack_TRS-DIN5_bom.xlsx
+++ b/Eurorack_TRS-DIN5/Eurorack_TRS-DIN5_bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Desktop/Tindie/Eurorack_TRS-DIN5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_TRS-DIN5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33460613-E14D-644F-A985-559A057BD4EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2864A70-444A-2841-BFF5-ACD840C770D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="540" windowWidth="28800" windowHeight="16300" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="20" yWindow="540" windowWidth="28800" windowHeight="16300" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
@@ -527,9 +527,6 @@
     <t>3-pin jumper header and jumper</t>
   </si>
   <si>
-    <t>* Refer to silkscreen istructions for jumper positions for TRS-A or TRS-B specifications</t>
-  </si>
-  <si>
     <t>* Use only TRS 3.5mm cables. Do not use mono eurorack cables.</t>
   </si>
   <si>
@@ -540,6 +537,9 @@
   </si>
   <si>
     <t>MIDI Eurorack TRS-DIN5</t>
+  </si>
+  <si>
+    <t>* Refer to silkscreen instructions for jumper positions for TRS-A or TRS-B specifications</t>
   </si>
 </sst>
 </file>
@@ -726,6 +726,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -738,8 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:AJ160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,13 +1121,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="R2" t="s">
         <v>2</v>
       </c>
@@ -1274,13 +1274,13 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21">
+        <v>165</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -1545,11 +1545,11 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="E17" s="6"/>
       <c r="R17" t="s">
         <v>11</v>
@@ -1577,13 +1577,13 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="R18" t="s">
         <v>11</v>
       </c>
@@ -1610,13 +1610,13 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
       <c r="R19" t="s">
         <v>11</v>
       </c>
